--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -633,31 +633,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 34946-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 34946-2019.xlsx", "A 34946-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 34946-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 34946-2019.png", "A 34946-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/knärot/A 34946-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/knärot/A 34946-2019.png", "A 34946-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 34946-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 34946-2019.docx", "A 34946-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 34946-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 34946-2019.docx", "A 34946-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 34946-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 34946-2019.docx", "A 34946-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 34946-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 34946-2019.docx", "A 34946-2019")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,27 +728,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 34921-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 34921-2019.xlsx", "A 34921-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 34921-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 34921-2019.png", "A 34921-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 34921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 34921-2019.docx", "A 34921-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 34921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 34921-2019.docx", "A 34921-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 34921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 34921-2019.docx", "A 34921-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 34921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 34921-2019.docx", "A 34921-2019")</f>
         <v/>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -822,27 +822,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 72326-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 72326-2021.xlsx", "A 72326-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 72326-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 72326-2021.png", "A 72326-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 72326-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 72326-2021.docx", "A 72326-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 72326-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 72326-2021.docx", "A 72326-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 72326-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 72326-2021.docx", "A 72326-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 72326-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 72326-2021.docx", "A 72326-2021")</f>
         <v/>
       </c>
     </row>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,27 +914,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 51644-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 51644-2021.xlsx", "A 51644-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 51644-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 51644-2021.png", "A 51644-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 51644-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 51644-2021.docx", "A 51644-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 51644-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 51644-2021.docx", "A 51644-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 51644-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 51644-2021.docx", "A 51644-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 51644-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 51644-2021.docx", "A 51644-2021")</f>
         <v/>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,27 +1005,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 53694-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 53694-2019.xlsx", "A 53694-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 53694-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 53694-2019.png", "A 53694-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 53694-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 53694-2019.docx", "A 53694-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 53694-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 53694-2019.docx", "A 53694-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 53694-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 53694-2019.docx", "A 53694-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 53694-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 53694-2019.docx", "A 53694-2019")</f>
         <v/>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,27 +1091,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 47362-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 47362-2022.xlsx", "A 47362-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 47362-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 47362-2022.png", "A 47362-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 47362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 47362-2022.docx", "A 47362-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 47362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 47362-2022.docx", "A 47362-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 47362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 47362-2022.docx", "A 47362-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 47362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 47362-2022.docx", "A 47362-2022")</f>
         <v/>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,27 +1176,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 65790-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 65790-2018.xlsx", "A 65790-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 65790-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 65790-2018.png", "A 65790-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 65790-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 65790-2018.docx", "A 65790-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 65790-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 65790-2018.docx", "A 65790-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 65790-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 65790-2018.docx", "A 65790-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 65790-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 65790-2018.docx", "A 65790-2018")</f>
         <v/>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,27 +1261,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 20337-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 20337-2019.xlsx", "A 20337-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 20337-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 20337-2019.png", "A 20337-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 20337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 20337-2019.docx", "A 20337-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 20337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 20337-2019.docx", "A 20337-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 20337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 20337-2019.docx", "A 20337-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 20337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 20337-2019.docx", "A 20337-2019")</f>
         <v/>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,27 +1351,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 61542-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 61542-2019.xlsx", "A 61542-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 61542-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 61542-2019.png", "A 61542-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 61542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 61542-2019.docx", "A 61542-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 61542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 61542-2019.docx", "A 61542-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 61542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 61542-2019.docx", "A 61542-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 61542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 61542-2019.docx", "A 61542-2019")</f>
         <v/>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1441,27 +1441,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 59120-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 59120-2020.xlsx", "A 59120-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 59120-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 59120-2020.png", "A 59120-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 59120-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 59120-2020.docx", "A 59120-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 59120-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 59120-2020.docx", "A 59120-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 59120-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 59120-2020.docx", "A 59120-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 59120-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 59120-2020.docx", "A 59120-2020")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,27 +1531,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 62699-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 62699-2020.xlsx", "A 62699-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 62699-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 62699-2020.png", "A 62699-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 62699-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 62699-2020.docx", "A 62699-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 62699-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 62699-2020.docx", "A 62699-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 62699-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 62699-2020.docx", "A 62699-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 62699-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 62699-2020.docx", "A 62699-2020")</f>
         <v/>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,27 +1621,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 51640-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 51640-2021.xlsx", "A 51640-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 51640-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 51640-2021.png", "A 51640-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 51640-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 51640-2021.docx", "A 51640-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 51640-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 51640-2021.docx", "A 51640-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 51640-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 51640-2021.docx", "A 51640-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 51640-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 51640-2021.docx", "A 51640-2021")</f>
         <v/>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,27 +1711,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 55745-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/artfynd/A 55745-2021.xlsx", "A 55745-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 55745-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/kartor/A 55745-2021.png", "A 55745-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 55745-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomål/A 55745-2021.docx", "A 55745-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 55745-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/klagomålsmail/A 55745-2021.docx", "A 55745-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 55745-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsyn/A 55745-2021.docx", "A 55745-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 55745-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORSJO/tillsynsmail/A 55745-2021.docx", "A 55745-2021")</f>
         <v/>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y344"/>
+  <dimension ref="A1:Y345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
       </c>
       <c r="R343" s="2" t="inlineStr"/>
     </row>
-    <row r="344">
+    <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
           <t>A 40081-2023</t>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21119,6 +21119,63 @@
         <v>0</v>
       </c>
       <c r="R344" s="2" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>A 44310-2023</t>
+        </is>
+      </c>
+      <c r="B345" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C345" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>NORSJÖ</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>0</v>
+      </c>
+      <c r="O345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>45187</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y345"/>
+  <dimension ref="A1:Y346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
       </c>
       <c r="R344" s="2" t="inlineStr"/>
     </row>
-    <row r="345">
+    <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
           <t>A 44310-2023</t>
@@ -21130,7 +21130,7 @@
         <v>45187</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21176,6 +21176,63 @@
         <v>0</v>
       </c>
       <c r="R345" s="2" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>A 44976-2023</t>
+        </is>
+      </c>
+      <c r="B346" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C346" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>NORSJÖ</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" t="n">
+        <v>0</v>
+      </c>
+      <c r="O346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y346"/>
+  <dimension ref="A1:Y347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>45187</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="R345" s="2" t="inlineStr"/>
     </row>
-    <row r="346">
+    <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
           <t>A 44976-2023</t>
@@ -21187,7 +21187,7 @@
         <v>45190</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21233,6 +21233,63 @@
         <v>0</v>
       </c>
       <c r="R346" s="2" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>A 46535-2023</t>
+        </is>
+      </c>
+      <c r="B347" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C347" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>NORSJÖ</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>0</v>
+      </c>
+      <c r="O347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y347"/>
+  <dimension ref="A1:Y349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>45187</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>45190</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
       </c>
       <c r="R346" s="2" t="inlineStr"/>
     </row>
-    <row r="347">
+    <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
           <t>A 46535-2023</t>
@@ -21244,7 +21244,7 @@
         <v>45197</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21290,6 +21290,130 @@
         <v>0</v>
       </c>
       <c r="R347" s="2" t="inlineStr"/>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>A 47297-2023</t>
+        </is>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C348" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>NORSJÖ</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>0</v>
+      </c>
+      <c r="O348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" s="2" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>A 47326-2023</t>
+        </is>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C349" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>NORSJÖ</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y349"/>
+  <dimension ref="A1:Y350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>45187</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>45190</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>45197</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>45202</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
       </c>
       <c r="R348" s="2" t="inlineStr"/>
     </row>
-    <row r="349">
+    <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
           <t>A 47326-2023</t>
@@ -21363,7 +21363,7 @@
         <v>45202</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21414,6 +21414,68 @@
         <v>0</v>
       </c>
       <c r="R349" s="2" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>A 47604-2023</t>
+        </is>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C350" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>NORSJÖ</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y350"/>
+  <dimension ref="A1:Y351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>45187</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>45190</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>45197</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>45202</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45202</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="R349" s="2" t="inlineStr"/>
     </row>
-    <row r="350">
+    <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
           <t>A 47604-2023</t>
@@ -21425,7 +21425,7 @@
         <v>45203</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21476,6 +21476,68 @@
         <v>0</v>
       </c>
       <c r="R350" s="2" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>A 47636-2023</t>
+        </is>
+      </c>
+      <c r="B351" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C351" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>NORSJÖ</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>1</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R351" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>45187</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>45190</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>45197</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>45202</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45202</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45203</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>45203</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43658</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43658</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44545</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44462</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44853</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43433</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>44462</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>44476</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43318</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43320</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43329</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43398</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43433</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43433</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43447</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43486</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43496</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43502</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43502</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43510</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43514</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43521</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43552</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43563</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43570</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43571</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>43605</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>43623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43696</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43696</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43738</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43739</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43739</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43761</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43766</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43766</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43774</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43780</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43787</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43817</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43864</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43866</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43886</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43927</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43966</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43987</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43993</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43998</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43998</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44006</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44013</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44015</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44019</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44023</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44023</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44027</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44035</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44053</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44053</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44063</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44067</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>44084</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44090</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44119</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44147</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>44152</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44159</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44159</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44159</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44161</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44165</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44169</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44180</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44180</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44211</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44254</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44257</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44274</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44284</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44312</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44356</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44362</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44367</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44368</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44376</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44405</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44413</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44416</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44421</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44435</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44435</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44441</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44462</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44468</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44470</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44487</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44510</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44537</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44565</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44574</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44606</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44615</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44620</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44739</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44749</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44789</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44792</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44806</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>44820</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44832</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44844</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44848</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44848</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44862</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44867</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44869</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44873</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44874</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44876</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44886</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44914</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44915</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44943</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>44946</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44965</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44967</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44978</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44993</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45009</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45016</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45027</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45044</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45049</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45058</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45062</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>45068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>45068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45071</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45085</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45099</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45104</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45104</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45105</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45107</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45114</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45120</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45131</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45140</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45140</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45140</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45145</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45156</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45159</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45159</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45159</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45159</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45160</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45160</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45160</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45161</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45161</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45161</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45161</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45162</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45162</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45163</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45163</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45163</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45163</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45163</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45163</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45163</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45163</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45163</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>45163</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45163</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45163</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45163</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>45163</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45163</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45163</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45163</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45163</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45166</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45166</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45166</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45166</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>45187</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>45190</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>45197</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>45202</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45202</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45203</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>45203</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
